--- a/doc_templates/xlsx/example.xlsx
+++ b/doc_templates/xlsx/example.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t xml:space="preserve">Демонстрация работы с xlsx</t>
   </si>
@@ -63,6 +63,12 @@
   </si>
   <si>
     <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{table tbl_contents}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{end}}</t>
   </si>
   <si>
     <t xml:space="preserve">Итого:</t>
@@ -488,10 +494,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ1048576"/>
+  <dimension ref="A1:AMJ18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -542,7 +548,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="28.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
@@ -575,87 +581,102 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="8"/>
+      <c r="A7" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="B7" s="9"/>
       <c r="C7" s="8"/>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="11"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="9"/>
       <c r="C8" s="8"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="11"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
+      <c r="A9" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="14" t="s">
+      <c r="A10" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="11"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="16"/>
-      <c r="B11" s="14" t="s">
-        <v>17</v>
-      </c>
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="16"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="4"/>
+      <c r="A12" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>18</v>
+      </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="17"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
+      <c r="A13" s="16"/>
+      <c r="B13" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
-      <c r="AMI13" s="19"/>
-      <c r="AMJ13" s="19"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="20"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="18"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="18"/>
-      <c r="B15" s="22"/>
+      <c r="A15" s="17"/>
+      <c r="B15" s="18"/>
       <c r="C15" s="18"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
+      <c r="AMI15" s="19"/>
+      <c r="AMJ15" s="19"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="23"/>
-      <c r="B16" s="24"/>
-    </row>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="A16" s="20"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="18"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="23"/>
+      <c r="B18" s="24"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:E1"/>
@@ -663,29 +684,29 @@
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="E4:E5"/>
   </mergeCells>
-  <conditionalFormatting sqref="C10 A10:B14 D8:E8 A8:B8">
+  <conditionalFormatting sqref="C12 A12:B16 D10:E10 A10:B10">
     <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>($A8=" ")</formula>
+      <formula>($A10=" ")</formula>
     </cfRule>
     <cfRule type="expression" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND($A8="    ",#ref!&lt;&gt;256)</formula>
+      <formula>AND($A10="    ",#ref!&lt;&gt;256)</formula>
     </cfRule>
     <cfRule type="expression" priority="4" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>($A8="    ")</formula>
+      <formula>($A10="    ")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A16:B16">
+  <conditionalFormatting sqref="A18:B18">
     <cfRule type="expression" priority="5" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
-      <formula>($A16=" ")</formula>
+      <formula>($A18=" ")</formula>
     </cfRule>
     <cfRule type="expression" priority="6" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
-      <formula>AND($A16="    ",#ref!&lt;&gt;256)</formula>
+      <formula>AND($A18="    ",#ref!&lt;&gt;256)</formula>
     </cfRule>
     <cfRule type="expression" priority="7" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
-      <formula>($A16="    ")</formula>
+      <formula>($A18="    ")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B15">
+  <conditionalFormatting sqref="B17">
     <cfRule type="expression" priority="8" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
       <formula>(#ref!=" ")</formula>
     </cfRule>
@@ -696,15 +717,15 @@
       <formula>(#ref!="    ")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E13">
+  <conditionalFormatting sqref="E15">
     <cfRule type="expression" priority="11" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
-      <formula>($A13=" ")</formula>
+      <formula>($A15=" ")</formula>
     </cfRule>
     <cfRule type="expression" priority="12" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
-      <formula>AND($A13="    ",#ref!&lt;&gt;256)</formula>
+      <formula>AND($A15="    ",#ref!&lt;&gt;256)</formula>
     </cfRule>
     <cfRule type="expression" priority="13" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
-      <formula>($A13="    ")</formula>
+      <formula>($A15="    ")</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
